--- a/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
@@ -451,7 +451,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -472,15 +472,25 @@
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="1" t="inlineStr">
+      <c r="F1" s="1" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="1" t="inlineStr">
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -492,26 +502,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>310318</t>
+          <t>001276</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强A</t>
+          <t>建信新经济灵活配置混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>91.23</t>
+          <t>2.26</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>10</v>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
       </c>
     </row>
     <row r="3">
@@ -520,26 +540,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>001276</t>
+          <t>001825</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>建信新经济灵活配置混合</t>
+          <t>建信中国制造2025股票</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>88.47</t>
+          <t>1.04</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>7</v>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="4">
@@ -548,25 +578,35 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>007804</t>
+          <t>310318</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>申万菱信沪深300指数增强C</t>
+          <t>申万菱信沪深300指数增强A</t>
         </is>
       </c>
       <c r="D4" t="inlineStr">
         <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
           <t>91.23</t>
         </is>
       </c>
-      <c r="E4" t="inlineStr">
+      <c r="F4" t="inlineStr">
         <is>
           <t>0.04</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
         <v>10</v>
       </c>
     </row>
@@ -576,26 +616,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>001825</t>
+          <t>007804</t>
         </is>
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>建信中国制造2025股票</t>
+          <t>申万菱信沪深300指数增强C</t>
         </is>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>90.75</t>
+          <t>1.91</t>
         </is>
       </c>
       <c r="E5" t="inlineStr">
         <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="F5" t="n">
-        <v>8</v>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
       </c>
     </row>
   </sheetData>
@@ -609,7 +659,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F3"/>
+  <dimension ref="A1:H3"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -630,15 +680,25 @@
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
           <t>股票总仓位</t>
         </is>
       </c>
-      <c r="E1" s="2" t="inlineStr">
+      <c r="F1" s="2" t="inlineStr">
         <is>
           <t>仓位占比</t>
         </is>
       </c>
-      <c r="F1" s="2" t="inlineStr">
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
         <is>
           <t>仓位排名</t>
         </is>
@@ -650,26 +710,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>501098</t>
+          <t>506006</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+          <t>汇添富科创板2年定期开放混合</t>
         </is>
       </c>
       <c r="D2" t="inlineStr">
         <is>
-          <t>79.13</t>
+          <t>31.44</t>
         </is>
       </c>
       <c r="E2" t="inlineStr">
         <is>
-          <t>3.27</t>
-        </is>
-      </c>
-      <c r="F2" t="n">
-        <v>7</v>
+          <t>78.78</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.2702</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>8</v>
       </c>
     </row>
     <row r="3">
@@ -678,26 +748,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>506006</t>
+          <t>501098</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>汇添富科创板2年定期开放混合</t>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
         </is>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>78.78</t>
+          <t>3.69</t>
         </is>
       </c>
       <c r="E3" t="inlineStr">
         <is>
-          <t>4.04</t>
-        </is>
-      </c>
-      <c r="F3" t="n">
-        <v>8</v>
+          <t>79.13</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.1207</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
@@ -8,6 +8,7 @@
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -783,4 +784,440 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>40.08</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>96.42</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>1.9238</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>149.08</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>25.31</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>1.4312</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>4.49</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>74.14</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.1410</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>009242</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>中加核心智造混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0539</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>166007</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.0369</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>001884</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中欧互通精选混合E</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>92.98</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>1.59</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>008884</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>博远博锐混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.0108</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>009243</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>中加核心智造混合C</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>78.76</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.0048</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>80.30</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>008885</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>博远博锐混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>89.03</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
@@ -9,6 +9,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="1" state="visible" r:id="rId1"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -1220,4 +1221,1162 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H30"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>49.24</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>91.96</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.61</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.2700</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>36.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>96.88</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.2362</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>34.78</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>93.75</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>6.01</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.0903</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001128</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>宝盈新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.82</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>87.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.3082</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>001487</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>宝盈优势产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>27.06</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>90.70</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>0.9255</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>18.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>0.7564</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>11.24</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>0.3563</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>11.06</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>0.3561</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>68.41</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>0.3473</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>12.08</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.3141</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>3.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.48</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.72</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.2660</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>6.95</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.78</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.2509</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>93.51</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.47</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.2454</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>009141</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>3.07</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2158</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>2.06</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010779</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>9.64</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.1668</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.80</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>88.79</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.1632</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>75.32</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>2.30</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.0973</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>009366</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.0710</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>008526</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>1.01</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>89.59</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.22</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.0399</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>010780</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>西部利得量化优选一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>92.86</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.0379</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>93.13</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>0.80</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>32.24</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.60</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>78.89</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0168</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>90.96</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>8.28</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0157</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>009142</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>泰达宏利价值长青混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.66</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>7.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>008527</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>华泰柏瑞行业精选混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>0.19</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>79.55</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0084</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009367</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>浦银安盛科技创新一年定期开放混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>88.31</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
@@ -10,6 +10,7 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2379,4 +2380,104 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D5"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>29</v>
+      </c>
+      <c r="D2" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>10</v>
+      </c>
+      <c r="D3" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>2</v>
+      </c>
+      <c r="D4" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2020-Q4</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>4</v>
+      </c>
+      <c r="D5" t="n">
+        <v>0.17</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
 </file>
--- a/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
@@ -10,7 +10,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="2" state="visible" r:id="rId2"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -2388,7 +2389,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:H53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2399,17 +2400,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
-          <t>持有市值</t>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -2419,14 +2440,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>29</v>
-      </c>
-      <c r="D2" t="n">
-        <v>12.83</v>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>47.98</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>87.31</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>5.62</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>2.6965</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="3">
@@ -2435,14 +2478,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>10</v>
-      </c>
-      <c r="D3" t="n">
-        <v>3.63</v>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>37.51</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>97.16</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.43</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4119</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -2451,14 +2516,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>2</v>
-      </c>
-      <c r="D4" t="n">
-        <v>1.39</v>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>59.04</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9956</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
       </c>
     </row>
     <row r="5">
@@ -2467,13 +2554,1973 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>53.67</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9429</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>506000</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>南方科创板 3 年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>35.11</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>92.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>5.25</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.8433</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>30.78</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.8222</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010045</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富稳健添盈一年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>71.60</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>20.29</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.7256</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>44.48</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.37</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4990</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>26.16</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.0909</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>16.21</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>5.92</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9596</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.47</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8036</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>12.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>89.14</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.51</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.4226</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.20</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.3489</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>6.37</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>93.96</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.2905</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>162207</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>泰达宏利效率优选混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>7.55</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>69.55</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.2673</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>5.49</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>90.20</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.2520</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011431</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.2112</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>5.05</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>88.76</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.1939</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.1717</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>2.98</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.05</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.47</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.1630</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010944</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>2.55</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.1454</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>009874</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>九泰久睿量化股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>4.30</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.59</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.34</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.1436</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>003416</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.1275</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>77.05</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.1157</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>010120</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.0877</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>506008</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.0686</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>001839</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>九泰久兴灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.50</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.0606</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>001897</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>1.85</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>003032</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>平安医疗健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>84.97</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.16</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.0594</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>0.91</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>91.86</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.90</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>1.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>75.45</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.17</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.0496</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>90.31</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.0434</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>1.38</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.0428</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>0.73</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.63</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.0336</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>005381</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0285</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>0.87</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>75.53</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.86</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>90.92</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>7.16</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>92.67</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.10</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.68</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>93.88</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>004510</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>九泰久盛量化先锋灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>93.37</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>005382</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>泰康睿利量化多策略混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0137</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011432</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>泰达宏利消费服务混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.15</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>5.24</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0094</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>010945</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>招商商业模式优选混合C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>5.70</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0051</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>007808</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>北信瑞丰量化优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>79.77</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0025</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>012793</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>长城科创两年定开混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>50.88</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0023</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>004724</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>004725</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>先锋聚元灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>47.32</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>1.87</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>010121</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>九泰久福量化股票C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>78.68</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0011</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>007952</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>招商财经大数据策略股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.94</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>3.38</t>
+        </is>
+      </c>
+      <c r="G53" t="n">
+        <v>0</v>
+      </c>
+      <c r="H53" t="n">
+        <v>9</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D6"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>52</v>
+      </c>
+      <c r="D2" t="n">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>29</v>
+      </c>
+      <c r="D3" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>10</v>
+      </c>
+      <c r="D4" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>2</v>
+      </c>
+      <c r="D5" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C5" t="n">
+      <c r="C6" t="n">
         <v>4</v>
       </c>
-      <c r="D5" t="n">
+      <c r="D6" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
@@ -11,7 +11,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="3" state="visible" r:id="rId3"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -4419,7 +4420,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D6"/>
+  <dimension ref="A1:H59"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4430,17 +4431,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -4450,14 +4471,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>52</v>
-      </c>
-      <c r="D2" t="n">
-        <v>22.38</v>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>93.32</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>79.84</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>4.3767</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="3">
@@ -4466,14 +4509,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>29</v>
-      </c>
-      <c r="D3" t="n">
-        <v>12.83</v>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>49.54</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>2.4176</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>6</v>
       </c>
     </row>
     <row r="4">
@@ -4482,14 +4547,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>10</v>
-      </c>
-      <c r="D4" t="n">
-        <v>3.63</v>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>1.9994</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="5">
@@ -4498,14 +4585,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>2</v>
-      </c>
-      <c r="D5" t="n">
-        <v>1.39</v>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>38.45</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>77.97</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>1.9994</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>4</v>
       </c>
     </row>
     <row r="6">
@@ -4514,13 +4623,2179 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>41.22</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>1.5787</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>36.73</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>72.35</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>1.5610</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>24.34</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5602</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>26.37</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>91.69</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>5.21</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.3739</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>38.71</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.2155</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>25.68</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>0.9425</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>21.01</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>71.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>0.8803</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>20.34</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>0.8665</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>14.96</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.8363</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>12.66</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>89.12</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>6.41</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8115</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>14.08</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.5998</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>13.34</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>94.92</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.67</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.4896</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>9.63</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>81.27</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.59</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.4420</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>9.99</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.4056</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>050008</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>博时第三产业成长混合</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.42</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>85.18</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.3863</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>7.27</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3322</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>92.85</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>5.50</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.2530</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.23</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.2348</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>5.37</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>5.73</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.2246</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>5.13</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.64</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.1775</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>3.81</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.64</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.1768</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>4.31</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>73.48</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.1651</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>3.55</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.44</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.1512</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>4.24</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>87.83</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.50</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.1484</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>67.08</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.14</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.1372</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>1.89</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>94.60</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>6.84</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.1293</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>005805</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.1264</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>163001</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>长信医疗保健行业灵活配置混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.58</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>94.37</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1213</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2.25</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>94.87</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>4.37</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.0983</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>76.11</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.0856</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.30</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.26</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.0538</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.0524</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>81.13</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.57</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.0411</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>0.90</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>74.07</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.0383</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>89.09</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>010703</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>财通智选消费股票A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.0319</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>79.15</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.06</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.0264</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>71.54</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.0239</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>77.26</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.0177</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.89</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.0172</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>010704</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>财通智选消费股票C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0154</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>0.54</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0148</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>93.66</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0121</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>87.55</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.92</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0098</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.20</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>81.60</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>2.74</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>011453</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>华泰柏瑞医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.14</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>88.16</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>2.59</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>90.86</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0030</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>003586</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>003587</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>先锋精一灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>92.66</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.83</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0014</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>87.09</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>5.03</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>88.92</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>4.88</t>
+        </is>
+      </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D7"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>58</v>
+      </c>
+      <c r="D2" t="n">
+        <v>28.08</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>52</v>
+      </c>
+      <c r="D3" t="n">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>29</v>
+      </c>
+      <c r="D4" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>10</v>
+      </c>
+      <c r="D5" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>2</v>
+      </c>
+      <c r="D6" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C6" t="n">
+      <c r="C7" t="n">
         <v>4</v>
       </c>
-      <c r="D6" t="n">
+      <c r="D7" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
@@ -12,7 +12,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="4" state="visible" r:id="rId4"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="8" state="visible" r:id="rId8"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -6678,7 +6679,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D7"/>
+  <dimension ref="A1:H92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -6689,17 +6690,37 @@
     <row r="1">
       <c r="B1" s="2" t="inlineStr">
         <is>
-          <t>日期</t>
+          <t>基金代码</t>
         </is>
       </c>
       <c r="C1" s="2" t="inlineStr">
         <is>
-          <t>持有数量(只)</t>
+          <t>基金名称</t>
         </is>
       </c>
       <c r="D1" s="2" t="inlineStr">
         <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
           <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
         </is>
       </c>
     </row>
@@ -6709,14 +6730,36 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
-        </is>
-      </c>
-      <c r="C2" t="n">
-        <v>58</v>
-      </c>
-      <c r="D2" t="n">
-        <v>28.08</v>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>98.01</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.41</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>6.66</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>6.5275</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="3">
@@ -6725,14 +6768,36 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
-        </is>
-      </c>
-      <c r="C3" t="n">
-        <v>52</v>
-      </c>
-      <c r="D3" t="n">
-        <v>22.38</v>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>61.01</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.1609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>3</v>
       </c>
     </row>
     <row r="4">
@@ -6741,14 +6806,36 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
-        </is>
-      </c>
-      <c r="C4" t="n">
-        <v>29</v>
-      </c>
-      <c r="D4" t="n">
-        <v>12.83</v>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>46.90</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.7483</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="5">
@@ -6757,14 +6844,36 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
-        </is>
-      </c>
-      <c r="C5" t="n">
-        <v>10</v>
-      </c>
-      <c r="D5" t="n">
-        <v>3.63</v>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>39.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6979</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
       </c>
     </row>
     <row r="6">
@@ -6773,14 +6882,36 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
-        </is>
-      </c>
-      <c r="C6" t="n">
-        <v>2</v>
-      </c>
-      <c r="D6" t="n">
-        <v>1.39</v>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>39.07</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.3442</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>5</v>
       </c>
     </row>
     <row r="7">
@@ -6789,13 +6920,3405 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>25.58</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.1615</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>37.62</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.90</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>5.71</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>2.1481</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>28.65</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>94.90</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>7.32</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>2.0972</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>270005</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>广发聚丰混合A</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>46.79</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4177</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>19.94</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3938</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>17.05</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.3862</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3747</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>42.04</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>83.55</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>3.27</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3747</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>20.15</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.1183</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>12.84</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>8.45</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.0850</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>011425</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>广发优势成长股票A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7101</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.17</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6632</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>270050</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>广发新经济混合A</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>15.39</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.5679</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>15.34</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.5216</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>92.24</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>8.05</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.3920</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>8.85</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.3788</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>9.78</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>88.23</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.3550</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.3101</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>6.09</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>93.65</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>5.02</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.3057</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>4.98</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.2814</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>85.16</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>5.86</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.2742</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>7.28</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.2628</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.36</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>71.43</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.00</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.2616</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>004905</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>5.53</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.2190</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合(LOF)</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>6.98</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>90.48</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2073</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>2.19</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2052</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>8.81</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>98.49</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>2.32</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2044</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>007750</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>广发优势增长股票</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>4.05</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>93.94</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>5.00</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2025</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2.21</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>92.54</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>8.13</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.1797</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>86.35</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>5.65</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.1780</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>001550</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.1770</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>4.82</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>88.12</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>3.54</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.1706</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>93.47</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>3.24</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.1678</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>86.12</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>4.68</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.1619</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>92.42</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1544</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>015079</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>6.04</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>58.28</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1214</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>011426</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>广发优势成长股票C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>93.04</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>4.10</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1181</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>001551</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>天弘中证医药100指数型发起式 C</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>10.04</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>94.93</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>1.14</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1145</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>77.32</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1102</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.23</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>91.16</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1098</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2.85</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1083</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.11</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>4.70</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.0992</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>008107</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>华商医药医疗行业股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>88.73</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>0.88</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>92.14</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>6.99</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.0615</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>86.98</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>3.61</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.22</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.0413</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>001965</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.0398</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011351</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.0388</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>0.84</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.0365</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械交易型开放式指数证券投资基金</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>1.46</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>99.36</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.0350</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>012153</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>1.43</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.0337</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>005108</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>圆信永丰双利优选定期开放灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.00</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>4.72</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.0326</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>86.18</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.0311</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>0.67</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>83.70</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0287</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>010134</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>广发新经济混合C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>92.37</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.69</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>94.25</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.98</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>015080</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>永赢成长远航一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.25</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>58.28</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>2.01</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0251</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>009502</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0238</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>0.61</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.38</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0232</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>92.43</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>2.20</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0218</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>0.83</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0208</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>006072</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0151</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>001966</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>圆信永丰兴源灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>4.79</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0134</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>006240</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>0.38</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0107</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>010031</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>华泰柏瑞生物医药灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>91.35</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0099</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>006241</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>中融医疗健康精选混合C</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>0.33</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>84.23</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>2.82</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0093</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>006274</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>圆信永丰医药健康混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>0.18</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>91.79</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0083</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>001864</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>中海魅力长三角灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>0.22</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>72.66</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0079</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>009503</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>国寿安保创新医药股票C</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>0.11</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>83.54</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>5.40</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0059</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>012154</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>博时研究慧选混合型证券投资基金C</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>76.55</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0050</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>002564</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>新沃通盈灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>93.83</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0047</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>94.34</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>5.06</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0046</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>010025</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>广发聚丰混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.15</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>91.31</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>3.03</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>011352</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>金鹰年年邮益一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>0.42</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>28.25</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>006457</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>86.79</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0035</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>006458</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>平安估值优势灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>58.87</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.45</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0031</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005537</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0021</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>009106</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票A</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>009107</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>嘉合同顺智选股票C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>86.84</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.65</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005538</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>中航新起航灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.96</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>6.85</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>88.58</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>6.82</t>
+        </is>
+      </c>
+      <c r="G89" t="n">
+        <v>0</v>
+      </c>
+      <c r="H89" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G90" t="n">
+        <v>0</v>
+      </c>
+      <c r="H90" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>75.65</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G91" t="n">
+        <v>0</v>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>014929</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>民生加银创新成长混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.78</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>3.15</t>
+        </is>
+      </c>
+      <c r="G92" t="n">
+        <v>0</v>
+      </c>
+      <c r="H92" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:D8"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>日期</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>持有数量(只)</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>2022-Q2</t>
+        </is>
+      </c>
+      <c r="C2" t="n">
+        <v>91</v>
+      </c>
+      <c r="D2" t="n">
+        <v>43.11</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>2022-Q1</t>
+        </is>
+      </c>
+      <c r="C3" t="n">
+        <v>58</v>
+      </c>
+      <c r="D3" t="n">
+        <v>28.08</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>2021-Q4</t>
+        </is>
+      </c>
+      <c r="C4" t="n">
+        <v>52</v>
+      </c>
+      <c r="D4" t="n">
+        <v>22.38</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>2021-Q3</t>
+        </is>
+      </c>
+      <c r="C5" t="n">
+        <v>29</v>
+      </c>
+      <c r="D5" t="n">
+        <v>12.83</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>2021-Q2</t>
+        </is>
+      </c>
+      <c r="C6" t="n">
+        <v>10</v>
+      </c>
+      <c r="D6" t="n">
+        <v>3.63</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C7" t="n">
+        <v>2</v>
+      </c>
+      <c r="D7" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C7" t="n">
+      <c r="C8" t="n">
         <v>4</v>
       </c>
-      <c r="D7" t="n">
+      <c r="D8" t="n">
         <v>0.17</v>
       </c>
     </row>

--- a/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
@@ -7,13 +7,14 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -457,7 +458,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D8"/>
+  <dimension ref="A1:D9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -488,14 +489,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="D2" t="n">
-        <v>43.11</v>
+        <v>61.44</v>
       </c>
     </row>
     <row r="3">
@@ -504,14 +505,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D3" t="n">
-        <v>28.08</v>
+        <v>43.11</v>
       </c>
     </row>
     <row r="4">
@@ -520,14 +521,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D4" t="n">
-        <v>22.38</v>
+        <v>28.08</v>
       </c>
     </row>
     <row r="5">
@@ -536,14 +537,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D5" t="n">
-        <v>12.83</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="6">
@@ -552,14 +553,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D6" t="n">
-        <v>3.63</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="7">
@@ -568,14 +569,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D7" t="n">
-        <v>1.39</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="8">
@@ -584,13 +585,29 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C8" t="n">
+        <v>2</v>
+      </c>
+      <c r="D8" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C8" t="n">
+      <c r="C9" t="n">
         <v>4</v>
       </c>
-      <c r="D8" t="n">
+      <c r="D9" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -600,6 +617,4916 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H129"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>85.14</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>75.99</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.86</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.5434</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>46.47</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.6609</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>001717</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>131.81</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>4.3234</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>32.06</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.9720</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.13</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.4790</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>37.77</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3871</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>009714</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>华安聚优精选混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>66.05</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>90.02</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>2.91</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.9221</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>16.61</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>88.62</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>10.49</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.7424</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>44.36</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>81.74</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.7123</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>50.07</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.63</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.11</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.5572</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>010481</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长精选2年持有期混合</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>31.12</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>76.14</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>4.87</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.5155</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>000452</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>28.31</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.3957</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>29.29</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>1.3796</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>050026</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>32.65</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>1.3289</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>000831</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>工银医疗保健股票</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>41.69</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>82.62</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.13</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>1.3049</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>15.29</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>1.2523</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>15.78</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>1.2324</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>11.66</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>1.1672</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>12.29</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>1.1516</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>10.95</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>10.01</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>1.0961</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>010685</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>工银前沿医疗股票C</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>28.39</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>86.58</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>3.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.9312</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>21.80</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>83.39</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.04</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.8807</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>21.31</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.8013</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>011230</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票C</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>15.89</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.6563</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>011229</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>创金合信数字经济主题股票A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>15.42</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>92.35</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>4.13</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.6368</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>012234</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>20.31</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.6012</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>9.05</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.5991</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>88.90</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>6.17</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.5769</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>011868</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>6.14</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.5741</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>013552</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>汇添富成长领先混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>10.27</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>62.59</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.5207</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>15.53</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.5140</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>10.39</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.3948</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>10.72</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.3902</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>000945</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>10.20</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.3856</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>009618</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>18.40</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.3827</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>4.11</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.16</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>9.17</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.3769</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>001915</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>宝盈医疗健康沪港深股票</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.15</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>91.59</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>6.71</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.3456</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>519171</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>7.05</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.3194</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>66.68</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.3089</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>013553</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富成长领先混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>5.87</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>62.59</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>5.07</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.2976</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.2845</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>4.44</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>68.44</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>6.32</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.2806</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>519979</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>长信内需成长混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>6.93</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.2786</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>6.30</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>87.18</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>4.09</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.2577</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>013895</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>8.51</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.2553</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.2447</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.2347</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001521</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>国寿安保成长优选股票</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>6.22</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.2127</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>5.55</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.2087</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>4.40</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>80.29</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>4.71</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.2072</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>5.80</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.2013</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>94.86</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>9.88</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1956</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2.84</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>85.74</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>6.62</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1880</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>5.91</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1873</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>81.87</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.76</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1778</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>001075</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>4.35</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1753</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>009898</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1715</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014347</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1708</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>4.60</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.1592</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>240020</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>华宝医药生物优选混合</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>5.76</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>91.68</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>2.73</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.1572</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>519997</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>长信银利精选混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>4.01</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.1548</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭运作灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>3.36</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>77.90</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>4.19</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.1408</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>011869</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.39</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>94.99</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>9.35</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>78.90</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.1205</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>506009</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>国泰科创板两年定期开放混合</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>85.80</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>5.67</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.1162</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>000946</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>华夏医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2.78</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>84.42</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.1051</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.61</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>92.62</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>6.21</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.1000</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0948</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>013896</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>宝盈成长精选混合C</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2.93</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>90.34</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0879</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>012086</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>博时健康生活混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2.31</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0783</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>001170</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>泰达宏利复兴伟业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>84.22</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0762</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.82</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>77.70</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0684</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>517850</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>汇添富中证沪港深张江自主创新50ETF</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>97.75</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.02</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0683</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>014718</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合A</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0680</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.71</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>86.01</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>9.37</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0665</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>012235</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>华安聚弘精选混合C</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.16</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>89.05</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>2.96</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0639</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>85.27</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>8.19</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0573</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>013183</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>浦银安盛医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.23</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>88.05</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>4.53</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0557</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>91.51</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>8.16</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0457</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>014841</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合A</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0424</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>1.64</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>99.90</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>2.53</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0415</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>005044</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0400</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>99.00</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>2.88</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0389</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>0.99</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>78.91</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0376</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.72</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>012982</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>华夏创新医药龙头混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0367</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.44</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>85.82</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>7.81</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0344</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>159877</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>南方中证全指医疗保健ETF</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.35</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>99.67</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0338</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>80.38</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>3.47</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0333</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>015768</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>长信内需成长混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0330</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>159891</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>建信中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>1.29</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>99.37</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0324</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.85</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>83.90</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.79</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0322</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0312</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012981</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>华夏创新医药龙头混合A</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.75</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>88.11</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>3.82</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0286</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>016059</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.70</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>82.45</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.76</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0263</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.54</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>5.16</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0258</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>007481</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.69</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0219</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>000059</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数A</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0216</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>012087</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>博时健康生活混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.57</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>93.02</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>3.39</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0193</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>510660</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华夏上证医药卫生ETF</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.96</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>99.53</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.00</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>75.87</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>3.46</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0183</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>014348</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.49</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>74.81</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>3.31</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>007903</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>长城量化小盘股票</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.86</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>91.70</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>1.20</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0103</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>015389</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>宝盈转型动力灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>0.24</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>91.90</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>4.03</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0097</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014842</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>东方阿尔法医疗健康混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.28</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>94.08</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.42</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0096</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>014933</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>南方医药保健灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>93.36</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0064</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>001563</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华富健康文娱灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>93.80</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>4.77</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0062</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>005569</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>中融智选红利股票A</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0055</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>011895</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>博时医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.13</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>88.15</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>4.07</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0053</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>005043</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>国寿安保健康科学混合A</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.08</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>87.70</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>5.34</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>006569</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>国联安中证医药100指数C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.32</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.19</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>1.27</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0041</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>014719</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合C</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.10</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>76.61</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.40</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0034</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>87.60</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>5.10</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>006397</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>长信内需成长混合E</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>92.49</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0020</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>014080</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>交银施罗德启汇混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>71.00</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H117" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>014572</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>长信银利精选混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>79.98</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.86</t>
+        </is>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H118" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H119" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>016061</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>80.58</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>3.64</t>
+        </is>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>0.0015</t>
+        </is>
+      </c>
+      <c r="H120" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="121">
+      <c r="A121" s="2" t="n">
+        <v>119</v>
+      </c>
+      <c r="B121" t="inlineStr">
+        <is>
+          <t>004918</t>
+        </is>
+      </c>
+      <c r="C121" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合C</t>
+        </is>
+      </c>
+      <c r="D121" t="inlineStr">
+        <is>
+          <t>0.05</t>
+        </is>
+      </c>
+      <c r="E121" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F121" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G121" t="inlineStr">
+        <is>
+          <t>0.0013</t>
+        </is>
+      </c>
+      <c r="H121" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="122">
+      <c r="A122" s="2" t="n">
+        <v>120</v>
+      </c>
+      <c r="B122" t="inlineStr">
+        <is>
+          <t>004917</t>
+        </is>
+      </c>
+      <c r="C122" t="inlineStr">
+        <is>
+          <t>中银证券祥瑞混合A</t>
+        </is>
+      </c>
+      <c r="D122" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E122" t="inlineStr">
+        <is>
+          <t>79.07</t>
+        </is>
+      </c>
+      <c r="F122" t="inlineStr">
+        <is>
+          <t>2.51</t>
+        </is>
+      </c>
+      <c r="G122" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H122" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="123">
+      <c r="A123" s="2" t="n">
+        <v>121</v>
+      </c>
+      <c r="B123" t="inlineStr">
+        <is>
+          <t>005570</t>
+        </is>
+      </c>
+      <c r="C123" t="inlineStr">
+        <is>
+          <t>中融智选红利股票C</t>
+        </is>
+      </c>
+      <c r="D123" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E123" t="inlineStr">
+        <is>
+          <t>92.04</t>
+        </is>
+      </c>
+      <c r="F123" t="inlineStr">
+        <is>
+          <t>2.61</t>
+        </is>
+      </c>
+      <c r="G123" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H123" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="124">
+      <c r="A124" s="2" t="n">
+        <v>122</v>
+      </c>
+      <c r="B124" t="inlineStr">
+        <is>
+          <t>014758</t>
+        </is>
+      </c>
+      <c r="C124" t="inlineStr">
+        <is>
+          <t>民生加银医药健康股票C</t>
+        </is>
+      </c>
+      <c r="D124" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E124" t="inlineStr">
+        <is>
+          <t>92.05</t>
+        </is>
+      </c>
+      <c r="F124" t="inlineStr">
+        <is>
+          <t>6.86</t>
+        </is>
+      </c>
+      <c r="G124" t="inlineStr">
+        <is>
+          <t>0.0007</t>
+        </is>
+      </c>
+      <c r="H124" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="125">
+      <c r="A125" s="2" t="n">
+        <v>123</v>
+      </c>
+      <c r="B125" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C125" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D125" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E125" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F125" t="inlineStr">
+        <is>
+          <t>10.03</t>
+        </is>
+      </c>
+      <c r="G125" t="n">
+        <v>0</v>
+      </c>
+      <c r="H125" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="126">
+      <c r="A126" s="2" t="n">
+        <v>124</v>
+      </c>
+      <c r="B126" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C126" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D126" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E126" t="inlineStr">
+        <is>
+          <t>92.87</t>
+        </is>
+      </c>
+      <c r="F126" t="inlineStr">
+        <is>
+          <t>5.57</t>
+        </is>
+      </c>
+      <c r="G126" t="n">
+        <v>0</v>
+      </c>
+      <c r="H126" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="127">
+      <c r="A127" s="2" t="n">
+        <v>125</v>
+      </c>
+      <c r="B127" t="inlineStr">
+        <is>
+          <t>015066</t>
+        </is>
+      </c>
+      <c r="C127" t="inlineStr">
+        <is>
+          <t>华夏逸享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D127" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E127" t="inlineStr">
+        <is>
+          <t>85.55</t>
+        </is>
+      </c>
+      <c r="F127" t="inlineStr">
+        <is>
+          <t>3.18</t>
+        </is>
+      </c>
+      <c r="G127" t="n">
+        <v>0</v>
+      </c>
+      <c r="H127" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="128">
+      <c r="A128" s="2" t="n">
+        <v>126</v>
+      </c>
+      <c r="B128" t="inlineStr">
+        <is>
+          <t>015065</t>
+        </is>
+      </c>
+      <c r="C128" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D128" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E128" t="inlineStr">
+        <is>
+          <t>85.44</t>
+        </is>
+      </c>
+      <c r="F128" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G128" t="n">
+        <v>0</v>
+      </c>
+      <c r="H128" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="129">
+      <c r="A129" s="2" t="n">
+        <v>127</v>
+      </c>
+      <c r="B129" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C129" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D129" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E129" t="inlineStr">
+        <is>
+          <t>85.81</t>
+        </is>
+      </c>
+      <c r="F129" t="inlineStr">
+        <is>
+          <t>9.27</t>
+        </is>
+      </c>
+      <c r="G129" t="n">
+        <v>0</v>
+      </c>
+      <c r="H129" t="n">
+        <v>1</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -4105,7 +9032,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -6363,7 +11290,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -8393,7 +13320,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9551,7 +14478,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9987,7 +14914,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -10119,7 +15046,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>

--- a/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
+++ b/数据整理/stocks/A股/科创板/688301-奕瑞科技.xlsx
@@ -7,14 +7,15 @@
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="总计" sheetId="1" state="visible" r:id="rId1"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="2" state="visible" r:id="rId2"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="3" state="visible" r:id="rId3"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="4" state="visible" r:id="rId4"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="5" state="visible" r:id="rId5"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="6" state="visible" r:id="rId6"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="7" state="visible" r:id="rId7"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="8" state="visible" r:id="rId8"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q4" sheetId="2" state="visible" r:id="rId2"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q3" sheetId="3" state="visible" r:id="rId3"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q2" sheetId="4" state="visible" r:id="rId4"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2022-Q1" sheetId="5" state="visible" r:id="rId5"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q4" sheetId="6" state="visible" r:id="rId6"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q3" sheetId="7" state="visible" r:id="rId7"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q2" sheetId="8" state="visible" r:id="rId8"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2021-Q1" sheetId="9" state="visible" r:id="rId9"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="2020-Q4" sheetId="10" state="visible" r:id="rId10"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -458,7 +459,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:D9"/>
+  <dimension ref="A1:D10"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -489,14 +490,14 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>2022-Q3</t>
+          <t>2022-Q4</t>
         </is>
       </c>
       <c r="C2" t="n">
-        <v>128</v>
+        <v>119</v>
       </c>
       <c r="D2" t="n">
-        <v>61.44</v>
+        <v>46.07</v>
       </c>
     </row>
     <row r="3">
@@ -505,14 +506,14 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>2022-Q2</t>
+          <t>2022-Q3</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>91</v>
+        <v>128</v>
       </c>
       <c r="D3" t="n">
-        <v>43.11</v>
+        <v>61.44</v>
       </c>
     </row>
     <row r="4">
@@ -521,14 +522,14 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>2022-Q1</t>
+          <t>2022-Q2</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>58</v>
+        <v>91</v>
       </c>
       <c r="D4" t="n">
-        <v>28.08</v>
+        <v>43.11</v>
       </c>
     </row>
     <row r="5">
@@ -537,14 +538,14 @@
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>2021-Q4</t>
+          <t>2022-Q1</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>52</v>
+        <v>58</v>
       </c>
       <c r="D5" t="n">
-        <v>22.38</v>
+        <v>28.08</v>
       </c>
     </row>
     <row r="6">
@@ -553,14 +554,14 @@
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>2021-Q3</t>
+          <t>2021-Q4</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>29</v>
+        <v>52</v>
       </c>
       <c r="D6" t="n">
-        <v>12.83</v>
+        <v>22.38</v>
       </c>
     </row>
     <row r="7">
@@ -569,14 +570,14 @@
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>2021-Q2</t>
+          <t>2021-Q3</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>10</v>
+        <v>29</v>
       </c>
       <c r="D7" t="n">
-        <v>3.63</v>
+        <v>12.83</v>
       </c>
     </row>
     <row r="8">
@@ -585,14 +586,14 @@
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>2021-Q1</t>
+          <t>2021-Q2</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>2</v>
+        <v>10</v>
       </c>
       <c r="D8" t="n">
-        <v>1.39</v>
+        <v>3.63</v>
       </c>
     </row>
     <row r="9">
@@ -601,13 +602,29 @@
       </c>
       <c r="B9" t="inlineStr">
         <is>
+          <t>2021-Q1</t>
+        </is>
+      </c>
+      <c r="C9" t="n">
+        <v>2</v>
+      </c>
+      <c r="D9" t="n">
+        <v>1.39</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
           <t>2020-Q4</t>
         </is>
       </c>
-      <c r="C9" t="n">
+      <c r="C10" t="n">
         <v>4</v>
       </c>
-      <c r="D9" t="n">
+      <c r="D10" t="n">
         <v>0.17</v>
       </c>
     </row>
@@ -616,7 +633,4785 @@
 </worksheet>
 </file>
 
+<file path=xl/worksheets/sheet10.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H5"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="1" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="1" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="1" t="inlineStr">
+        <is>
+          <t>基金金额</t>
+        </is>
+      </c>
+      <c r="E1" s="1" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="1" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="1" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>001276</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>建信新经济灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>2.26</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>88.47</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>4.93</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>0.1114</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="1" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>001825</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>建信中国制造2025股票</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>1.04</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.75</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>4.76</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>0.0495</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="1" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>310318</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强A</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>9.03</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>0.0036</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>007804</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>申万菱信沪深300指数增强C</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>91.23</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>0.04</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>0.0008</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>10</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:H120"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A1" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
+  <sheetData>
+    <row r="1">
+      <c r="B1" s="2" t="inlineStr">
+        <is>
+          <t>基金代码</t>
+        </is>
+      </c>
+      <c r="C1" s="2" t="inlineStr">
+        <is>
+          <t>基金名称</t>
+        </is>
+      </c>
+      <c r="D1" s="2" t="inlineStr">
+        <is>
+          <t>基金规模</t>
+        </is>
+      </c>
+      <c r="E1" s="2" t="inlineStr">
+        <is>
+          <t>股票总仓位</t>
+        </is>
+      </c>
+      <c r="F1" s="2" t="inlineStr">
+        <is>
+          <t>仓位占比</t>
+        </is>
+      </c>
+      <c r="G1" s="2" t="inlineStr">
+        <is>
+          <t>持有市值(亿元)</t>
+        </is>
+      </c>
+      <c r="H1" s="2" t="inlineStr">
+        <is>
+          <t>仓位排名</t>
+        </is>
+      </c>
+    </row>
+    <row r="2">
+      <c r="A2" s="2" t="n">
+        <v>0</v>
+      </c>
+      <c r="B2" t="inlineStr">
+        <is>
+          <t>006113</t>
+        </is>
+      </c>
+      <c r="C2" t="inlineStr">
+        <is>
+          <t>汇添富创新医药主题混合</t>
+        </is>
+      </c>
+      <c r="D2" t="inlineStr">
+        <is>
+          <t>88.68</t>
+        </is>
+      </c>
+      <c r="E2" t="inlineStr">
+        <is>
+          <t>84.13</t>
+        </is>
+      </c>
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>8.20</t>
+        </is>
+      </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>7.2718</t>
+        </is>
+      </c>
+      <c r="H2" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="3">
+      <c r="A3" s="2" t="n">
+        <v>1</v>
+      </c>
+      <c r="B3" t="inlineStr">
+        <is>
+          <t>470006</t>
+        </is>
+      </c>
+      <c r="C3" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合A</t>
+        </is>
+      </c>
+      <c r="D3" t="inlineStr">
+        <is>
+          <t>47.77</t>
+        </is>
+      </c>
+      <c r="E3" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G3" t="inlineStr">
+        <is>
+          <t>4.0939</t>
+        </is>
+      </c>
+      <c r="H3" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="4">
+      <c r="A4" s="2" t="n">
+        <v>2</v>
+      </c>
+      <c r="B4" t="inlineStr">
+        <is>
+          <t>015122</t>
+        </is>
+      </c>
+      <c r="C4" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合D</t>
+        </is>
+      </c>
+      <c r="D4" t="inlineStr">
+        <is>
+          <t>30.29</t>
+        </is>
+      </c>
+      <c r="E4" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>2.6110</t>
+        </is>
+      </c>
+      <c r="H4" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="2" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>001417</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>30.26</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>2.6084</t>
+        </is>
+      </c>
+      <c r="H5" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6">
+      <c r="A6" s="2" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>009664</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D6" t="inlineStr">
+        <is>
+          <t>29.15</t>
+        </is>
+      </c>
+      <c r="E6" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>2.5360</t>
+        </is>
+      </c>
+      <c r="H6" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="7">
+      <c r="A7" s="2" t="n">
+        <v>5</v>
+      </c>
+      <c r="B7" t="inlineStr">
+        <is>
+          <t>008065</t>
+        </is>
+      </c>
+      <c r="C7" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合A</t>
+        </is>
+      </c>
+      <c r="D7" t="inlineStr">
+        <is>
+          <t>34.81</t>
+        </is>
+      </c>
+      <c r="E7" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>2.3706</t>
+        </is>
+      </c>
+      <c r="H7" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="8">
+      <c r="A8" s="2" t="n">
+        <v>6</v>
+      </c>
+      <c r="B8" t="inlineStr">
+        <is>
+          <t>005739</t>
+        </is>
+      </c>
+      <c r="C8" t="inlineStr">
+        <is>
+          <t>富国转型机遇混合</t>
+        </is>
+      </c>
+      <c r="D8" t="inlineStr">
+        <is>
+          <t>41.02</t>
+        </is>
+      </c>
+      <c r="E8" t="inlineStr">
+        <is>
+          <t>91.55</t>
+        </is>
+      </c>
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>3.70</t>
+        </is>
+      </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>1.5177</t>
+        </is>
+      </c>
+      <c r="H8" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="9">
+      <c r="A9" s="2" t="n">
+        <v>7</v>
+      </c>
+      <c r="B9" t="inlineStr">
+        <is>
+          <t>519068</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr">
+        <is>
+          <t>汇添富成长焦点混合</t>
+        </is>
+      </c>
+      <c r="D9" t="inlineStr">
+        <is>
+          <t>46.33</t>
+        </is>
+      </c>
+      <c r="E9" t="inlineStr">
+        <is>
+          <t>89.63</t>
+        </is>
+      </c>
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>3.17</t>
+        </is>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>1.4687</t>
+        </is>
+      </c>
+      <c r="H9" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="10">
+      <c r="A10" s="2" t="n">
+        <v>8</v>
+      </c>
+      <c r="B10" t="inlineStr">
+        <is>
+          <t>506006</t>
+        </is>
+      </c>
+      <c r="C10" t="inlineStr">
+        <is>
+          <t>汇添富科创板2年定开混合</t>
+        </is>
+      </c>
+      <c r="D10" t="inlineStr">
+        <is>
+          <t>17.32</t>
+        </is>
+      </c>
+      <c r="E10" t="inlineStr">
+        <is>
+          <t>79.02</t>
+        </is>
+      </c>
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>8.23</t>
+        </is>
+      </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>1.4254</t>
+        </is>
+      </c>
+      <c r="H10" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="11">
+      <c r="A11" s="2" t="n">
+        <v>9</v>
+      </c>
+      <c r="B11" t="inlineStr">
+        <is>
+          <t>004075</t>
+        </is>
+      </c>
+      <c r="C11" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票A</t>
+        </is>
+      </c>
+      <c r="D11" t="inlineStr">
+        <is>
+          <t>33.93</t>
+        </is>
+      </c>
+      <c r="E11" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>1.3267</t>
+        </is>
+      </c>
+      <c r="H11" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="2" t="n">
+        <v>10</v>
+      </c>
+      <c r="B12" t="inlineStr">
+        <is>
+          <t>007553</t>
+        </is>
+      </c>
+      <c r="C12" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D12" t="inlineStr">
+        <is>
+          <t>11.40</t>
+        </is>
+      </c>
+      <c r="E12" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>1.1138</t>
+        </is>
+      </c>
+      <c r="H12" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="2" t="n">
+        <v>11</v>
+      </c>
+      <c r="B13" t="inlineStr">
+        <is>
+          <t>002408</t>
+        </is>
+      </c>
+      <c r="C13" t="inlineStr">
+        <is>
+          <t>中信建投医改灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D13" t="inlineStr">
+        <is>
+          <t>11.28</t>
+        </is>
+      </c>
+      <c r="E13" t="inlineStr">
+        <is>
+          <t>95.02</t>
+        </is>
+      </c>
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>9.77</t>
+        </is>
+      </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>1.1021</t>
+        </is>
+      </c>
+      <c r="H13" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" s="2" t="n">
+        <v>12</v>
+      </c>
+      <c r="B14" t="inlineStr">
+        <is>
+          <t>000220</t>
+        </is>
+      </c>
+      <c r="C14" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合A</t>
+        </is>
+      </c>
+      <c r="D14" t="inlineStr">
+        <is>
+          <t>12.58</t>
+        </is>
+      </c>
+      <c r="E14" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>0.9284</t>
+        </is>
+      </c>
+      <c r="H14" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="15">
+      <c r="A15" s="2" t="n">
+        <v>13</v>
+      </c>
+      <c r="B15" t="inlineStr">
+        <is>
+          <t>010599</t>
+        </is>
+      </c>
+      <c r="C15" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D15" t="inlineStr">
+        <is>
+          <t>14.06</t>
+        </is>
+      </c>
+      <c r="E15" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>0.8000</t>
+        </is>
+      </c>
+      <c r="H15" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="16">
+      <c r="A16" s="2" t="n">
+        <v>14</v>
+      </c>
+      <c r="B16" t="inlineStr">
+        <is>
+          <t>014057</t>
+        </is>
+      </c>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合A</t>
+        </is>
+      </c>
+      <c r="D16" t="inlineStr">
+        <is>
+          <t>20.59</t>
+        </is>
+      </c>
+      <c r="E16" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G16" t="inlineStr">
+        <is>
+          <t>0.7371</t>
+        </is>
+      </c>
+      <c r="H16" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="17">
+      <c r="A17" s="2" t="n">
+        <v>15</v>
+      </c>
+      <c r="B17" t="inlineStr">
+        <is>
+          <t>006527</t>
+        </is>
+      </c>
+      <c r="C17" t="inlineStr">
+        <is>
+          <t>富国优质发展混合A</t>
+        </is>
+      </c>
+      <c r="D17" t="inlineStr">
+        <is>
+          <t>18.22</t>
+        </is>
+      </c>
+      <c r="E17" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>0.7015</t>
+        </is>
+      </c>
+      <c r="H17" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="18">
+      <c r="A18" s="2" t="n">
+        <v>16</v>
+      </c>
+      <c r="B18" t="inlineStr">
+        <is>
+          <t>012155</t>
+        </is>
+      </c>
+      <c r="C18" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D18" t="inlineStr">
+        <is>
+          <t>14.21</t>
+        </is>
+      </c>
+      <c r="E18" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G18" t="inlineStr">
+        <is>
+          <t>0.6963</t>
+        </is>
+      </c>
+      <c r="H18" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="2" t="n">
+        <v>17</v>
+      </c>
+      <c r="B19" t="inlineStr">
+        <is>
+          <t>100056</t>
+        </is>
+      </c>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>富国低碳环保混合</t>
+        </is>
+      </c>
+      <c r="D19" t="inlineStr">
+        <is>
+          <t>19.07</t>
+        </is>
+      </c>
+      <c r="E19" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>3.53</t>
+        </is>
+      </c>
+      <c r="G19" t="inlineStr">
+        <is>
+          <t>0.6732</t>
+        </is>
+      </c>
+      <c r="H19" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="20">
+      <c r="A20" s="2" t="n">
+        <v>18</v>
+      </c>
+      <c r="B20" t="inlineStr">
+        <is>
+          <t>011826</t>
+        </is>
+      </c>
+      <c r="C20" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D20" t="inlineStr">
+        <is>
+          <t>9.96</t>
+        </is>
+      </c>
+      <c r="E20" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G20" t="inlineStr">
+        <is>
+          <t>0.6464</t>
+        </is>
+      </c>
+      <c r="H20" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="21">
+      <c r="A21" s="2" t="n">
+        <v>19</v>
+      </c>
+      <c r="B21" t="inlineStr">
+        <is>
+          <t>399011</t>
+        </is>
+      </c>
+      <c r="C21" t="inlineStr">
+        <is>
+          <t>中海医疗保健主题股票</t>
+        </is>
+      </c>
+      <c r="D21" t="inlineStr">
+        <is>
+          <t>9.90</t>
+        </is>
+      </c>
+      <c r="E21" t="inlineStr">
+        <is>
+          <t>93.21</t>
+        </is>
+      </c>
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>5.59</t>
+        </is>
+      </c>
+      <c r="G21" t="inlineStr">
+        <is>
+          <t>0.5534</t>
+        </is>
+      </c>
+      <c r="H21" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="22">
+      <c r="A22" s="2" t="n">
+        <v>20</v>
+      </c>
+      <c r="B22" t="inlineStr">
+        <is>
+          <t>159883</t>
+        </is>
+      </c>
+      <c r="C22" t="inlineStr">
+        <is>
+          <t>永赢中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D22" t="inlineStr">
+        <is>
+          <t>22.83</t>
+        </is>
+      </c>
+      <c r="E22" t="inlineStr">
+        <is>
+          <t>99.25</t>
+        </is>
+      </c>
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>2.28</t>
+        </is>
+      </c>
+      <c r="G22" t="inlineStr">
+        <is>
+          <t>0.5205</t>
+        </is>
+      </c>
+      <c r="H22" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="23">
+      <c r="A23" s="2" t="n">
+        <v>21</v>
+      </c>
+      <c r="B23" t="inlineStr">
+        <is>
+          <t>005454</t>
+        </is>
+      </c>
+      <c r="C23" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D23" t="inlineStr">
+        <is>
+          <t>11.09</t>
+        </is>
+      </c>
+      <c r="E23" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G23" t="inlineStr">
+        <is>
+          <t>0.4713</t>
+        </is>
+      </c>
+      <c r="H23" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="24">
+      <c r="A24" s="2" t="n">
+        <v>22</v>
+      </c>
+      <c r="B24" t="inlineStr">
+        <is>
+          <t>013552</t>
+        </is>
+      </c>
+      <c r="C24" t="inlineStr">
+        <is>
+          <t>汇添富成长领先混合A</t>
+        </is>
+      </c>
+      <c r="D24" t="inlineStr">
+        <is>
+          <t>8.42</t>
+        </is>
+      </c>
+      <c r="E24" t="inlineStr">
+        <is>
+          <t>69.95</t>
+        </is>
+      </c>
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>0.4555</t>
+        </is>
+      </c>
+      <c r="H24" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="25">
+      <c r="A25" s="2" t="n">
+        <v>23</v>
+      </c>
+      <c r="B25" t="inlineStr">
+        <is>
+          <t>000566</t>
+        </is>
+      </c>
+      <c r="C25" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合A</t>
+        </is>
+      </c>
+      <c r="D25" t="inlineStr">
+        <is>
+          <t>18.24</t>
+        </is>
+      </c>
+      <c r="E25" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G25" t="inlineStr">
+        <is>
+          <t>0.4378</t>
+        </is>
+      </c>
+      <c r="H25" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="26">
+      <c r="A26" s="2" t="n">
+        <v>24</v>
+      </c>
+      <c r="B26" t="inlineStr">
+        <is>
+          <t>000977</t>
+        </is>
+      </c>
+      <c r="C26" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D26" t="inlineStr">
+        <is>
+          <t>11.10</t>
+        </is>
+      </c>
+      <c r="E26" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G26" t="inlineStr">
+        <is>
+          <t>0.4274</t>
+        </is>
+      </c>
+      <c r="H26" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="27">
+      <c r="A27" s="2" t="n">
+        <v>25</v>
+      </c>
+      <c r="B27" t="inlineStr">
+        <is>
+          <t>005453</t>
+        </is>
+      </c>
+      <c r="C27" t="inlineStr">
+        <is>
+          <t>前海开源医疗健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D27" t="inlineStr">
+        <is>
+          <t>9.08</t>
+        </is>
+      </c>
+      <c r="E27" t="inlineStr">
+        <is>
+          <t>87.03</t>
+        </is>
+      </c>
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>4.25</t>
+        </is>
+      </c>
+      <c r="G27" t="inlineStr">
+        <is>
+          <t>0.3859</t>
+        </is>
+      </c>
+      <c r="H27" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="28">
+      <c r="A28" s="2" t="n">
+        <v>26</v>
+      </c>
+      <c r="B28" t="inlineStr">
+        <is>
+          <t>011212</t>
+        </is>
+      </c>
+      <c r="C28" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D28" t="inlineStr">
+        <is>
+          <t>10.37</t>
+        </is>
+      </c>
+      <c r="E28" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>0.3764</t>
+        </is>
+      </c>
+      <c r="H28" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="29">
+      <c r="A29" s="2" t="n">
+        <v>27</v>
+      </c>
+      <c r="B29" t="inlineStr">
+        <is>
+          <t>009162</t>
+        </is>
+      </c>
+      <c r="C29" t="inlineStr">
+        <is>
+          <t>富国医药成长30股票</t>
+        </is>
+      </c>
+      <c r="D29" t="inlineStr">
+        <is>
+          <t>4.32</t>
+        </is>
+      </c>
+      <c r="E29" t="inlineStr">
+        <is>
+          <t>91.06</t>
+        </is>
+      </c>
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>7.66</t>
+        </is>
+      </c>
+      <c r="G29" t="inlineStr">
+        <is>
+          <t>0.3309</t>
+        </is>
+      </c>
+      <c r="H29" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="30">
+      <c r="A30" s="2" t="n">
+        <v>28</v>
+      </c>
+      <c r="B30" t="inlineStr">
+        <is>
+          <t>009665</t>
+        </is>
+      </c>
+      <c r="C30" t="inlineStr">
+        <is>
+          <t>汇添富医疗积极成长一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D30" t="inlineStr">
+        <is>
+          <t>3.62</t>
+        </is>
+      </c>
+      <c r="E30" t="inlineStr">
+        <is>
+          <t>77.39</t>
+        </is>
+      </c>
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>8.70</t>
+        </is>
+      </c>
+      <c r="G30" t="inlineStr">
+        <is>
+          <t>0.3149</t>
+        </is>
+      </c>
+      <c r="H30" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="31">
+      <c r="A31" s="2" t="n">
+        <v>29</v>
+      </c>
+      <c r="B31" t="inlineStr">
+        <is>
+          <t>010090</t>
+        </is>
+      </c>
+      <c r="C31" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合A</t>
+        </is>
+      </c>
+      <c r="D31" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="E31" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>0.2926</t>
+        </is>
+      </c>
+      <c r="H31" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="32">
+      <c r="A32" s="2" t="n">
+        <v>30</v>
+      </c>
+      <c r="B32" t="inlineStr">
+        <is>
+          <t>011868</t>
+        </is>
+      </c>
+      <c r="C32" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合A</t>
+        </is>
+      </c>
+      <c r="D32" t="inlineStr">
+        <is>
+          <t>6.34</t>
+        </is>
+      </c>
+      <c r="E32" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G32" t="inlineStr">
+        <is>
+          <t>0.2809</t>
+        </is>
+      </c>
+      <c r="H32" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="33">
+      <c r="A33" s="2" t="n">
+        <v>31</v>
+      </c>
+      <c r="B33" t="inlineStr">
+        <is>
+          <t>013553</t>
+        </is>
+      </c>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>汇添富成长领先混合C</t>
+        </is>
+      </c>
+      <c r="D33" t="inlineStr">
+        <is>
+          <t>4.84</t>
+        </is>
+      </c>
+      <c r="E33" t="inlineStr">
+        <is>
+          <t>69.95</t>
+        </is>
+      </c>
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>5.41</t>
+        </is>
+      </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>0.2618</t>
+        </is>
+      </c>
+      <c r="H33" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="34">
+      <c r="A34" s="2" t="n">
+        <v>32</v>
+      </c>
+      <c r="B34" t="inlineStr">
+        <is>
+          <t>008066</t>
+        </is>
+      </c>
+      <c r="C34" t="inlineStr">
+        <is>
+          <t>汇添富中盘积极成长混合C</t>
+        </is>
+      </c>
+      <c r="D34" t="inlineStr">
+        <is>
+          <t>3.84</t>
+        </is>
+      </c>
+      <c r="E34" t="inlineStr">
+        <is>
+          <t>73.92</t>
+        </is>
+      </c>
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>6.81</t>
+        </is>
+      </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>0.2615</t>
+        </is>
+      </c>
+      <c r="H34" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="2" t="n">
+        <v>33</v>
+      </c>
+      <c r="B35" t="inlineStr">
+        <is>
+          <t>012557</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有混合A</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>7.74</t>
+        </is>
+      </c>
+      <c r="E35" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>0.2485</t>
+        </is>
+      </c>
+      <c r="H35" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="2" t="n">
+        <v>34</v>
+      </c>
+      <c r="B36" t="inlineStr">
+        <is>
+          <t>002264</t>
+        </is>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>6.36</t>
+        </is>
+      </c>
+      <c r="E36" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>0.2290</t>
+        </is>
+      </c>
+      <c r="H36" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="2" t="n">
+        <v>35</v>
+      </c>
+      <c r="B37" t="inlineStr">
+        <is>
+          <t>010049</t>
+        </is>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合A</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>5.29</t>
+        </is>
+      </c>
+      <c r="E37" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>0.2269</t>
+        </is>
+      </c>
+      <c r="H37" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="2" t="n">
+        <v>36</v>
+      </c>
+      <c r="B38" t="inlineStr">
+        <is>
+          <t>002542</t>
+        </is>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>5.54</t>
+        </is>
+      </c>
+      <c r="E38" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>0.2227</t>
+        </is>
+      </c>
+      <c r="H38" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="2" t="n">
+        <v>37</v>
+      </c>
+      <c r="B39" t="inlineStr">
+        <is>
+          <t>007968</t>
+        </is>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合A</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>8.64</t>
+        </is>
+      </c>
+      <c r="E39" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>0.2065</t>
+        </is>
+      </c>
+      <c r="H39" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="2" t="n">
+        <v>38</v>
+      </c>
+      <c r="B40" t="inlineStr">
+        <is>
+          <t>000878</t>
+        </is>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>3.96</t>
+        </is>
+      </c>
+      <c r="E40" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>0.2051</t>
+        </is>
+      </c>
+      <c r="H40" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="2" t="n">
+        <v>39</v>
+      </c>
+      <c r="B41" t="inlineStr">
+        <is>
+          <t>011827</t>
+        </is>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>汇添富健康生活一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="E41" t="inlineStr">
+        <is>
+          <t>91.57</t>
+        </is>
+      </c>
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>6.49</t>
+        </is>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>0.1986</t>
+        </is>
+      </c>
+      <c r="H41" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="2" t="n">
+        <v>40</v>
+      </c>
+      <c r="B42" t="inlineStr">
+        <is>
+          <t>010091</t>
+        </is>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>中信建投医药健康混合C</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>1.98</t>
+        </is>
+      </c>
+      <c r="E42" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F42" t="inlineStr">
+        <is>
+          <t>9.92</t>
+        </is>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>0.1964</t>
+        </is>
+      </c>
+      <c r="H42" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="2" t="n">
+        <v>41</v>
+      </c>
+      <c r="B43" t="inlineStr">
+        <is>
+          <t>009636</t>
+        </is>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>8.12</t>
+        </is>
+      </c>
+      <c r="E43" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F43" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>0.1892</t>
+        </is>
+      </c>
+      <c r="H43" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="2" t="n">
+        <v>42</v>
+      </c>
+      <c r="B44" t="inlineStr">
+        <is>
+          <t>014347</t>
+        </is>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合A</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>5.01</t>
+        </is>
+      </c>
+      <c r="E44" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F44" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>0.1784</t>
+        </is>
+      </c>
+      <c r="H44" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="2" t="n">
+        <v>43</v>
+      </c>
+      <c r="B45" t="inlineStr">
+        <is>
+          <t>006528</t>
+        </is>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>富国优质发展混合C</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>4.62</t>
+        </is>
+      </c>
+      <c r="E45" t="inlineStr">
+        <is>
+          <t>88.66</t>
+        </is>
+      </c>
+      <c r="F45" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>0.1779</t>
+        </is>
+      </c>
+      <c r="H45" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="2" t="n">
+        <v>44</v>
+      </c>
+      <c r="B46" t="inlineStr">
+        <is>
+          <t>014185</t>
+        </is>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>招商专精特新股票A</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>3.30</t>
+        </is>
+      </c>
+      <c r="E46" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F46" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>0.1742</t>
+        </is>
+      </c>
+      <c r="H46" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="2" t="n">
+        <v>45</v>
+      </c>
+      <c r="B47" t="inlineStr">
+        <is>
+          <t>011455</t>
+        </is>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合A</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="E47" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F47" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>0.1639</t>
+        </is>
+      </c>
+      <c r="H47" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="2" t="n">
+        <v>46</v>
+      </c>
+      <c r="B48" t="inlineStr">
+        <is>
+          <t>011151</t>
+        </is>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>富国医疗保健行业混合C</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2.22</t>
+        </is>
+      </c>
+      <c r="E48" t="inlineStr">
+        <is>
+          <t>89.71</t>
+        </is>
+      </c>
+      <c r="F48" t="inlineStr">
+        <is>
+          <t>7.38</t>
+        </is>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>0.1638</t>
+        </is>
+      </c>
+      <c r="H48" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="2" t="n">
+        <v>47</v>
+      </c>
+      <c r="B49" t="inlineStr">
+        <is>
+          <t>001173</t>
+        </is>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - A</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>4.56</t>
+        </is>
+      </c>
+      <c r="E49" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F49" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>0.1637</t>
+        </is>
+      </c>
+      <c r="H49" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="2" t="n">
+        <v>48</v>
+      </c>
+      <c r="B50" t="inlineStr">
+        <is>
+          <t>011884</t>
+        </is>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>工银景气优选混合A</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>6.12</t>
+        </is>
+      </c>
+      <c r="E50" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F50" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>0.1493</t>
+        </is>
+      </c>
+      <c r="H50" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="2" t="n">
+        <v>49</v>
+      </c>
+      <c r="B51" t="inlineStr">
+        <is>
+          <t>002919</t>
+        </is>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2.41</t>
+        </is>
+      </c>
+      <c r="E51" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F51" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>0.1460</t>
+        </is>
+      </c>
+      <c r="H51" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="2" t="n">
+        <v>50</v>
+      </c>
+      <c r="B52" t="inlineStr">
+        <is>
+          <t>310388</t>
+        </is>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合A</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>3.09</t>
+        </is>
+      </c>
+      <c r="E52" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F52" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>0.1323</t>
+        </is>
+      </c>
+      <c r="H52" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="2" t="n">
+        <v>51</v>
+      </c>
+      <c r="B53" t="inlineStr">
+        <is>
+          <t>014186</t>
+        </is>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>招商专精特新股票C</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2.50</t>
+        </is>
+      </c>
+      <c r="E53" t="inlineStr">
+        <is>
+          <t>87.72</t>
+        </is>
+      </c>
+      <c r="F53" t="inlineStr">
+        <is>
+          <t>5.28</t>
+        </is>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>0.1320</t>
+        </is>
+      </c>
+      <c r="H53" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="2" t="n">
+        <v>52</v>
+      </c>
+      <c r="B54" t="inlineStr">
+        <is>
+          <t>000967</t>
+        </is>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新动力灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>5.51</t>
+        </is>
+      </c>
+      <c r="E54" t="inlineStr">
+        <is>
+          <t>89.56</t>
+        </is>
+      </c>
+      <c r="F54" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>0.1300</t>
+        </is>
+      </c>
+      <c r="H54" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="2" t="n">
+        <v>53</v>
+      </c>
+      <c r="B55" t="inlineStr">
+        <is>
+          <t>501098</t>
+        </is>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>建信科技创新 3 年封闭混合</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>3.25</t>
+        </is>
+      </c>
+      <c r="E55" t="inlineStr">
+        <is>
+          <t>91.64</t>
+        </is>
+      </c>
+      <c r="F55" t="inlineStr">
+        <is>
+          <t>3.80</t>
+        </is>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>0.1235</t>
+        </is>
+      </c>
+      <c r="H55" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="2" t="n">
+        <v>54</v>
+      </c>
+      <c r="B56" t="inlineStr">
+        <is>
+          <t>011948</t>
+        </is>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>东吴智慧医疗量化策略灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2.02</t>
+        </is>
+      </c>
+      <c r="E56" t="inlineStr">
+        <is>
+          <t>93.11</t>
+        </is>
+      </c>
+      <c r="F56" t="inlineStr">
+        <is>
+          <t>6.06</t>
+        </is>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>0.1224</t>
+        </is>
+      </c>
+      <c r="H56" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="2" t="n">
+        <v>55</v>
+      </c>
+      <c r="B57" t="inlineStr">
+        <is>
+          <t>160211</t>
+        </is>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>国泰中小盘成长混合（LOF）</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>6.59</t>
+        </is>
+      </c>
+      <c r="E57" t="inlineStr">
+        <is>
+          <t>90.98</t>
+        </is>
+      </c>
+      <c r="F57" t="inlineStr">
+        <is>
+          <t>1.83</t>
+        </is>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>0.1206</t>
+        </is>
+      </c>
+      <c r="H57" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="2" t="n">
+        <v>56</v>
+      </c>
+      <c r="B58" t="inlineStr">
+        <is>
+          <t>013431</t>
+        </is>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>4.96</t>
+        </is>
+      </c>
+      <c r="E58" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F58" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>0.1166</t>
+        </is>
+      </c>
+      <c r="H58" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="2" t="n">
+        <v>57</v>
+      </c>
+      <c r="B59" t="inlineStr">
+        <is>
+          <t>014046</t>
+        </is>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>交银施罗德医药创新股票C</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2.97</t>
+        </is>
+      </c>
+      <c r="E59" t="inlineStr">
+        <is>
+          <t>87.57</t>
+        </is>
+      </c>
+      <c r="F59" t="inlineStr">
+        <is>
+          <t>3.91</t>
+        </is>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>0.1161</t>
+        </is>
+      </c>
+      <c r="H59" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="2" t="n">
+        <v>58</v>
+      </c>
+      <c r="B60" t="inlineStr">
+        <is>
+          <t>014189</t>
+        </is>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>南方专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2.34</t>
+        </is>
+      </c>
+      <c r="E60" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F60" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>0.0985</t>
+        </is>
+      </c>
+      <c r="H60" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="2" t="n">
+        <v>59</v>
+      </c>
+      <c r="B61" t="inlineStr">
+        <is>
+          <t>001174</t>
+        </is>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2.63</t>
+        </is>
+      </c>
+      <c r="E61" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F61" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>0.0944</t>
+        </is>
+      </c>
+      <c r="H61" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="2" t="n">
+        <v>60</v>
+      </c>
+      <c r="B62" t="inlineStr">
+        <is>
+          <t>001037</t>
+        </is>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>1.99</t>
+        </is>
+      </c>
+      <c r="E62" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F62" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>0.0933</t>
+        </is>
+      </c>
+      <c r="H62" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="2" t="n">
+        <v>61</v>
+      </c>
+      <c r="B63" t="inlineStr">
+        <is>
+          <t>000879</t>
+        </is>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>中海医药健康产业精选灵活配置混合 - C</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>1.73</t>
+        </is>
+      </c>
+      <c r="E63" t="inlineStr">
+        <is>
+          <t>94.30</t>
+        </is>
+      </c>
+      <c r="F63" t="inlineStr">
+        <is>
+          <t>5.18</t>
+        </is>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>0.0896</t>
+        </is>
+      </c>
+      <c r="H63" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="2" t="n">
+        <v>62</v>
+      </c>
+      <c r="B64" t="inlineStr">
+        <is>
+          <t>014718</t>
+        </is>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合A</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>1.95</t>
+        </is>
+      </c>
+      <c r="E64" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F64" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>0.0737</t>
+        </is>
+      </c>
+      <c r="H64" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="2" t="n">
+        <v>63</v>
+      </c>
+      <c r="B65" t="inlineStr">
+        <is>
+          <t>014058</t>
+        </is>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>富国金安均衡精选混合C</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>1.77</t>
+        </is>
+      </c>
+      <c r="E65" t="inlineStr">
+        <is>
+          <t>91.08</t>
+        </is>
+      </c>
+      <c r="F65" t="inlineStr">
+        <is>
+          <t>3.58</t>
+        </is>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>0.0634</t>
+        </is>
+      </c>
+      <c r="H65" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="2" t="n">
+        <v>64</v>
+      </c>
+      <c r="B66" t="inlineStr">
+        <is>
+          <t>011869</t>
+        </is>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>中信建投远见回报混合C</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>1.41</t>
+        </is>
+      </c>
+      <c r="E66" t="inlineStr">
+        <is>
+          <t>95.01</t>
+        </is>
+      </c>
+      <c r="F66" t="inlineStr">
+        <is>
+          <t>4.43</t>
+        </is>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>0.0625</t>
+        </is>
+      </c>
+      <c r="H66" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="2" t="n">
+        <v>65</v>
+      </c>
+      <c r="B67" t="inlineStr">
+        <is>
+          <t>013940</t>
+        </is>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票A</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>1.18</t>
+        </is>
+      </c>
+      <c r="E67" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F67" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>0.0614</t>
+        </is>
+      </c>
+      <c r="H67" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="2" t="n">
+        <v>66</v>
+      </c>
+      <c r="B68" t="inlineStr">
+        <is>
+          <t>016059</t>
+        </is>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>长城久鼎灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>1.52</t>
+        </is>
+      </c>
+      <c r="E68" t="inlineStr">
+        <is>
+          <t>86.24</t>
+        </is>
+      </c>
+      <c r="F68" t="inlineStr">
+        <is>
+          <t>4.02</t>
+        </is>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>0.0611</t>
+        </is>
+      </c>
+      <c r="H68" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="2" t="n">
+        <v>67</v>
+      </c>
+      <c r="B69" t="inlineStr">
+        <is>
+          <t>008373</t>
+        </is>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合A</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2.45</t>
+        </is>
+      </c>
+      <c r="E69" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F69" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>0.0583</t>
+        </is>
+      </c>
+      <c r="H69" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="2" t="n">
+        <v>68</v>
+      </c>
+      <c r="B70" t="inlineStr">
+        <is>
+          <t>005062</t>
+        </is>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强A</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>3.43</t>
+        </is>
+      </c>
+      <c r="E70" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F70" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>0.0580</t>
+        </is>
+      </c>
+      <c r="H70" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="2" t="n">
+        <v>69</v>
+      </c>
+      <c r="B71" t="inlineStr">
+        <is>
+          <t>011601</t>
+        </is>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票A</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>1.26</t>
+        </is>
+      </c>
+      <c r="E71" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F71" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>0.0537</t>
+        </is>
+      </c>
+      <c r="H71" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="2" t="n">
+        <v>70</v>
+      </c>
+      <c r="B72" t="inlineStr">
+        <is>
+          <t>880007</t>
+        </is>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>1.49</t>
+        </is>
+      </c>
+      <c r="E72" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F72" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>0.0508</t>
+        </is>
+      </c>
+      <c r="H72" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="2" t="n">
+        <v>71</v>
+      </c>
+      <c r="B73" t="inlineStr">
+        <is>
+          <t>010050</t>
+        </is>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>长城成长先锋混合C</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E73" t="inlineStr">
+        <is>
+          <t>87.64</t>
+        </is>
+      </c>
+      <c r="F73" t="inlineStr">
+        <is>
+          <t>4.29</t>
+        </is>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>0.0480</t>
+        </is>
+      </c>
+      <c r="H73" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="2" t="n">
+        <v>72</v>
+      </c>
+      <c r="B74" t="inlineStr">
+        <is>
+          <t>013847</t>
+        </is>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心汇选混合A</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>1.88</t>
+        </is>
+      </c>
+      <c r="E74" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F74" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>0.0444</t>
+        </is>
+      </c>
+      <c r="H74" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="2" t="n">
+        <v>73</v>
+      </c>
+      <c r="B75" t="inlineStr">
+        <is>
+          <t>673110</t>
+        </is>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>1.42</t>
+        </is>
+      </c>
+      <c r="E75" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F75" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>0.0426</t>
+        </is>
+      </c>
+      <c r="H75" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="2" t="n">
+        <v>74</v>
+      </c>
+      <c r="B76" t="inlineStr">
+        <is>
+          <t>159898</t>
+        </is>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>招商中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>1.70</t>
+        </is>
+      </c>
+      <c r="E76" t="inlineStr">
+        <is>
+          <t>99.16</t>
+        </is>
+      </c>
+      <c r="F76" t="inlineStr">
+        <is>
+          <t>2.37</t>
+        </is>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>0.0403</t>
+        </is>
+      </c>
+      <c r="H76" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="2" t="n">
+        <v>75</v>
+      </c>
+      <c r="B77" t="inlineStr">
+        <is>
+          <t>001972</t>
+        </is>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>前海开源沪港深智慧生活优选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>0.52</t>
+        </is>
+      </c>
+      <c r="E77" t="inlineStr">
+        <is>
+          <t>91.71</t>
+        </is>
+      </c>
+      <c r="F77" t="inlineStr">
+        <is>
+          <t>7.73</t>
+        </is>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>0.0402</t>
+        </is>
+      </c>
+      <c r="H77" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="2" t="n">
+        <v>76</v>
+      </c>
+      <c r="B78" t="inlineStr">
+        <is>
+          <t>159873</t>
+        </is>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>天弘中证全指医疗保健设备与服务ETF</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2.08</t>
+        </is>
+      </c>
+      <c r="E78" t="inlineStr">
+        <is>
+          <t>99.12</t>
+        </is>
+      </c>
+      <c r="F78" t="inlineStr">
+        <is>
+          <t>1.91</t>
+        </is>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>0.0397</t>
+        </is>
+      </c>
+      <c r="H78" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="2" t="n">
+        <v>77</v>
+      </c>
+      <c r="B79" t="inlineStr">
+        <is>
+          <t>015254</t>
+        </is>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>申万菱信消费增长混合C</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>0.89</t>
+        </is>
+      </c>
+      <c r="E79" t="inlineStr">
+        <is>
+          <t>92.93</t>
+        </is>
+      </c>
+      <c r="F79" t="inlineStr">
+        <is>
+          <t>4.28</t>
+        </is>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>0.0381</t>
+        </is>
+      </c>
+      <c r="H79" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="2" t="n">
+        <v>78</v>
+      </c>
+      <c r="B80" t="inlineStr">
+        <is>
+          <t>001294</t>
+        </is>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>新华战略新兴产业灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>1.24</t>
+        </is>
+      </c>
+      <c r="E80" t="inlineStr">
+        <is>
+          <t>94.39</t>
+        </is>
+      </c>
+      <c r="F80" t="inlineStr">
+        <is>
+          <t>2.95</t>
+        </is>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>0.0366</t>
+        </is>
+      </c>
+      <c r="H80" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="2" t="n">
+        <v>79</v>
+      </c>
+      <c r="B81" t="inlineStr">
+        <is>
+          <t>011259</t>
+        </is>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>汇添富高质量成长30一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>0.64</t>
+        </is>
+      </c>
+      <c r="E81" t="inlineStr">
+        <is>
+          <t>84.46</t>
+        </is>
+      </c>
+      <c r="F81" t="inlineStr">
+        <is>
+          <t>5.69</t>
+        </is>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>0.0364</t>
+        </is>
+      </c>
+      <c r="H81" t="n">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="2" t="n">
+        <v>80</v>
+      </c>
+      <c r="B82" t="inlineStr">
+        <is>
+          <t>011213</t>
+        </is>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>富国稳健策略6个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>0.98</t>
+        </is>
+      </c>
+      <c r="E82" t="inlineStr">
+        <is>
+          <t>90.32</t>
+        </is>
+      </c>
+      <c r="F82" t="inlineStr">
+        <is>
+          <t>3.63</t>
+        </is>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>0.0356</t>
+        </is>
+      </c>
+      <c r="H82" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="2" t="n">
+        <v>81</v>
+      </c>
+      <c r="B83" t="inlineStr">
+        <is>
+          <t>011602</t>
+        </is>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>前海开源公共卫生主题精选股票C</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>0.82</t>
+        </is>
+      </c>
+      <c r="E83" t="inlineStr">
+        <is>
+          <t>85.69</t>
+        </is>
+      </c>
+      <c r="F83" t="inlineStr">
+        <is>
+          <t>4.26</t>
+        </is>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>0.0349</t>
+        </is>
+      </c>
+      <c r="H83" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="2" t="n">
+        <v>82</v>
+      </c>
+      <c r="B84" t="inlineStr">
+        <is>
+          <t>013432</t>
+        </is>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气汇选三年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>1.31</t>
+        </is>
+      </c>
+      <c r="E84" t="inlineStr">
+        <is>
+          <t>91.63</t>
+        </is>
+      </c>
+      <c r="F84" t="inlineStr">
+        <is>
+          <t>2.35</t>
+        </is>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>0.0308</t>
+        </is>
+      </c>
+      <c r="H84" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="2" t="n">
+        <v>83</v>
+      </c>
+      <c r="B85" t="inlineStr">
+        <is>
+          <t>016061</t>
+        </is>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>长城环保主题灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>0.79</t>
+        </is>
+      </c>
+      <c r="E85" t="inlineStr">
+        <is>
+          <t>85.96</t>
+        </is>
+      </c>
+      <c r="F85" t="inlineStr">
+        <is>
+          <t>3.85</t>
+        </is>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>0.0304</t>
+        </is>
+      </c>
+      <c r="H85" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="2" t="n">
+        <v>84</v>
+      </c>
+      <c r="B86" t="inlineStr">
+        <is>
+          <t>016305</t>
+        </is>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>农银专精特新混合A</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>1.37</t>
+        </is>
+      </c>
+      <c r="E86" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F86" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>0.0281</t>
+        </is>
+      </c>
+      <c r="H86" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="2" t="n">
+        <v>85</v>
+      </c>
+      <c r="B87" t="inlineStr">
+        <is>
+          <t>013941</t>
+        </is>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>东吴医疗服务股票C</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>0.53</t>
+        </is>
+      </c>
+      <c r="E87" t="inlineStr">
+        <is>
+          <t>91.09</t>
+        </is>
+      </c>
+      <c r="F87" t="inlineStr">
+        <is>
+          <t>5.20</t>
+        </is>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>0.0276</t>
+        </is>
+      </c>
+      <c r="H87" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="2" t="n">
+        <v>86</v>
+      </c>
+      <c r="B88" t="inlineStr">
+        <is>
+          <t>014190</t>
+        </is>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>南方专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>0.65</t>
+        </is>
+      </c>
+      <c r="E88" t="inlineStr">
+        <is>
+          <t>85.02</t>
+        </is>
+      </c>
+      <c r="F88" t="inlineStr">
+        <is>
+          <t>4.21</t>
+        </is>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>0.0274</t>
+        </is>
+      </c>
+      <c r="H88" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="2" t="n">
+        <v>87</v>
+      </c>
+      <c r="B89" t="inlineStr">
+        <is>
+          <t>001801</t>
+        </is>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E89" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F89" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>0.0249</t>
+        </is>
+      </c>
+      <c r="H89" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="2" t="n">
+        <v>88</v>
+      </c>
+      <c r="B90" t="inlineStr">
+        <is>
+          <t>011885</t>
+        </is>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>工银景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>1.00</t>
+        </is>
+      </c>
+      <c r="E90" t="inlineStr">
+        <is>
+          <t>83.02</t>
+        </is>
+      </c>
+      <c r="F90" t="inlineStr">
+        <is>
+          <t>2.44</t>
+        </is>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>0.0244</t>
+        </is>
+      </c>
+      <c r="H90" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="2" t="n">
+        <v>89</v>
+      </c>
+      <c r="B91" t="inlineStr">
+        <is>
+          <t>162212</t>
+        </is>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合A</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>0.59</t>
+        </is>
+      </c>
+      <c r="E91" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F91" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>0.0236</t>
+        </is>
+      </c>
+      <c r="H91" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="2" t="n">
+        <v>90</v>
+      </c>
+      <c r="B92" t="inlineStr">
+        <is>
+          <t>010291</t>
+        </is>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>华泰柏瑞研究精选混合C</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>0.93</t>
+        </is>
+      </c>
+      <c r="E92" t="inlineStr">
+        <is>
+          <t>91.41</t>
+        </is>
+      </c>
+      <c r="F92" t="inlineStr">
+        <is>
+          <t>2.39</t>
+        </is>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>0.0222</t>
+        </is>
+      </c>
+      <c r="H92" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="2" t="n">
+        <v>91</v>
+      </c>
+      <c r="B93" t="inlineStr">
+        <is>
+          <t>005117</t>
+        </is>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合A</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>0.76</t>
+        </is>
+      </c>
+      <c r="E93" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F93" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H93" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="2" t="n">
+        <v>92</v>
+      </c>
+      <c r="B94" t="inlineStr">
+        <is>
+          <t>881007</t>
+        </is>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>招商资管智远成长灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>0.60</t>
+        </is>
+      </c>
+      <c r="E94" t="inlineStr">
+        <is>
+          <t>90.93</t>
+        </is>
+      </c>
+      <c r="F94" t="inlineStr">
+        <is>
+          <t>3.41</t>
+        </is>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>0.0205</t>
+        </is>
+      </c>
+      <c r="H94" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="2" t="n">
+        <v>93</v>
+      </c>
+      <c r="B95" t="inlineStr">
+        <is>
+          <t>012558</t>
+        </is>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>中欧景气前瞻一年持有混合C</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>0.63</t>
+        </is>
+      </c>
+      <c r="E95" t="inlineStr">
+        <is>
+          <t>90.95</t>
+        </is>
+      </c>
+      <c r="F95" t="inlineStr">
+        <is>
+          <t>3.21</t>
+        </is>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>0.0202</t>
+        </is>
+      </c>
+      <c r="H95" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="2" t="n">
+        <v>94</v>
+      </c>
+      <c r="B96" t="inlineStr">
+        <is>
+          <t>012156</t>
+        </is>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>汇添富成长先锋六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>0.40</t>
+        </is>
+      </c>
+      <c r="E96" t="inlineStr">
+        <is>
+          <t>89.10</t>
+        </is>
+      </c>
+      <c r="F96" t="inlineStr">
+        <is>
+          <t>4.90</t>
+        </is>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>0.0196</t>
+        </is>
+      </c>
+      <c r="H96" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="2" t="n">
+        <v>95</v>
+      </c>
+      <c r="B97" t="inlineStr">
+        <is>
+          <t>011456</t>
+        </is>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>长城竞争优势六个月持有期混合C</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>0.50</t>
+        </is>
+      </c>
+      <c r="E97" t="inlineStr">
+        <is>
+          <t>85.84</t>
+        </is>
+      </c>
+      <c r="F97" t="inlineStr">
+        <is>
+          <t>3.83</t>
+        </is>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>0.0192</t>
+        </is>
+      </c>
+      <c r="H97" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="2" t="n">
+        <v>96</v>
+      </c>
+      <c r="B98" t="inlineStr">
+        <is>
+          <t>005795</t>
+        </is>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>博时中证500指数增强C</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>1.12</t>
+        </is>
+      </c>
+      <c r="E98" t="inlineStr">
+        <is>
+          <t>93.43</t>
+        </is>
+      </c>
+      <c r="F98" t="inlineStr">
+        <is>
+          <t>1.69</t>
+        </is>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>0.0189</t>
+        </is>
+      </c>
+      <c r="H98" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="2" t="n">
+        <v>97</v>
+      </c>
+      <c r="B99" t="inlineStr">
+        <is>
+          <t>014348</t>
+        </is>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>富国趋势优先混合C</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>0.48</t>
+        </is>
+      </c>
+      <c r="E99" t="inlineStr">
+        <is>
+          <t>91.95</t>
+        </is>
+      </c>
+      <c r="F99" t="inlineStr">
+        <is>
+          <t>3.56</t>
+        </is>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>0.0171</t>
+        </is>
+      </c>
+      <c r="H99" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="2" t="n">
+        <v>98</v>
+      </c>
+      <c r="B100" t="inlineStr">
+        <is>
+          <t>017288</t>
+        </is>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>中欧瑾和灵活配置混合 - E</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>0.45</t>
+        </is>
+      </c>
+      <c r="E100" t="inlineStr">
+        <is>
+          <t>89.43</t>
+        </is>
+      </c>
+      <c r="F100" t="inlineStr">
+        <is>
+          <t>3.59</t>
+        </is>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>0.0162</t>
+        </is>
+      </c>
+      <c r="H100" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="2" t="n">
+        <v>99</v>
+      </c>
+      <c r="B101" t="inlineStr">
+        <is>
+          <t>002165</t>
+        </is>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>汇添富达欣灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>0.30</t>
+        </is>
+      </c>
+      <c r="E101" t="inlineStr">
+        <is>
+          <t>84.14</t>
+        </is>
+      </c>
+      <c r="F101" t="inlineStr">
+        <is>
+          <t>5.19</t>
+        </is>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>0.0156</t>
+        </is>
+      </c>
+      <c r="H101" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="2" t="n">
+        <v>100</v>
+      </c>
+      <c r="B102" t="inlineStr">
+        <is>
+          <t>010028</t>
+        </is>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>华泰柏瑞创新升级混合C</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>0.58</t>
+        </is>
+      </c>
+      <c r="E102" t="inlineStr">
+        <is>
+          <t>89.96</t>
+        </is>
+      </c>
+      <c r="F102" t="inlineStr">
+        <is>
+          <t>2.40</t>
+        </is>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>0.0139</t>
+        </is>
+      </c>
+      <c r="H102" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="2" t="n">
+        <v>101</v>
+      </c>
+      <c r="B103" t="inlineStr">
+        <is>
+          <t>159797</t>
+        </is>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>汇添富中证全指医疗器械ETF</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>0.56</t>
+        </is>
+      </c>
+      <c r="E103" t="inlineStr">
+        <is>
+          <t>98.45</t>
+        </is>
+      </c>
+      <c r="F103" t="inlineStr">
+        <is>
+          <t>2.14</t>
+        </is>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>0.0120</t>
+        </is>
+      </c>
+      <c r="H103" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="2" t="n">
+        <v>102</v>
+      </c>
+      <c r="B104" t="inlineStr">
+        <is>
+          <t>005209</t>
+        </is>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>东吴双三角股票A</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E104" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F104" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H104" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="2" t="n">
+        <v>103</v>
+      </c>
+      <c r="B105" t="inlineStr">
+        <is>
+          <t>005210</t>
+        </is>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>东吴双三角股票C</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>0.09</t>
+        </is>
+      </c>
+      <c r="E105" t="inlineStr">
+        <is>
+          <t>92.11</t>
+        </is>
+      </c>
+      <c r="F105" t="inlineStr">
+        <is>
+          <t>9.54</t>
+        </is>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>0.0086</t>
+        </is>
+      </c>
+      <c r="H105" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="2" t="n">
+        <v>104</v>
+      </c>
+      <c r="B106" t="inlineStr">
+        <is>
+          <t>510560</t>
+        </is>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>国寿安保中证500ETF</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>1.81</t>
+        </is>
+      </c>
+      <c r="E106" t="inlineStr">
+        <is>
+          <t>99.21</t>
+        </is>
+      </c>
+      <c r="F106" t="inlineStr">
+        <is>
+          <t>0.25</t>
+        </is>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H106" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="2" t="n">
+        <v>105</v>
+      </c>
+      <c r="B107" t="inlineStr">
+        <is>
+          <t>014719</t>
+        </is>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>富国天旭均衡混合C</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>0.12</t>
+        </is>
+      </c>
+      <c r="E107" t="inlineStr">
+        <is>
+          <t>91.30</t>
+        </is>
+      </c>
+      <c r="F107" t="inlineStr">
+        <is>
+          <t>3.78</t>
+        </is>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>0.0045</t>
+        </is>
+      </c>
+      <c r="H107" t="n">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="2" t="n">
+        <v>106</v>
+      </c>
+      <c r="B108" t="inlineStr">
+        <is>
+          <t>016306</t>
+        </is>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>农银专精特新混合C</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>0.21</t>
+        </is>
+      </c>
+      <c r="E108" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F108" t="inlineStr">
+        <is>
+          <t>2.05</t>
+        </is>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>0.0043</t>
+        </is>
+      </c>
+      <c r="H108" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="2" t="n">
+        <v>107</v>
+      </c>
+      <c r="B109" t="inlineStr">
+        <is>
+          <t>013848</t>
+        </is>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>华泰柏瑞匠心汇选混合C</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>0.17</t>
+        </is>
+      </c>
+      <c r="E109" t="inlineStr">
+        <is>
+          <t>92.25</t>
+        </is>
+      </c>
+      <c r="F109" t="inlineStr">
+        <is>
+          <t>2.36</t>
+        </is>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>0.0040</t>
+        </is>
+      </c>
+      <c r="H109" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="2" t="n">
+        <v>108</v>
+      </c>
+      <c r="B110" t="inlineStr">
+        <is>
+          <t>015121</t>
+        </is>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>汇添富医疗服务灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E110" t="inlineStr">
+        <is>
+          <t>89.53</t>
+        </is>
+      </c>
+      <c r="F110" t="inlineStr">
+        <is>
+          <t>8.62</t>
+        </is>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>0.0026</t>
+        </is>
+      </c>
+      <c r="H110" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="2" t="n">
+        <v>109</v>
+      </c>
+      <c r="B111" t="inlineStr">
+        <is>
+          <t>515590</t>
+        </is>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>前海开源中证500等权重ETF</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>0.34</t>
+        </is>
+      </c>
+      <c r="E111" t="inlineStr">
+        <is>
+          <t>95.19</t>
+        </is>
+      </c>
+      <c r="F111" t="inlineStr">
+        <is>
+          <t>0.55</t>
+        </is>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>0.0019</t>
+        </is>
+      </c>
+      <c r="H111" t="n">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="2" t="n">
+        <v>110</v>
+      </c>
+      <c r="B112" t="inlineStr">
+        <is>
+          <t>008374</t>
+        </is>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气回报一年持有期混合C</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>0.07</t>
+        </is>
+      </c>
+      <c r="E112" t="inlineStr">
+        <is>
+          <t>89.95</t>
+        </is>
+      </c>
+      <c r="F112" t="inlineStr">
+        <is>
+          <t>2.38</t>
+        </is>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>0.0017</t>
+        </is>
+      </c>
+      <c r="H112" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="113">
+      <c r="A113" s="2" t="n">
+        <v>111</v>
+      </c>
+      <c r="B113" t="inlineStr">
+        <is>
+          <t>005118</t>
+        </is>
+      </c>
+      <c r="C113" t="inlineStr">
+        <is>
+          <t>金信价值精选灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D113" t="inlineStr">
+        <is>
+          <t>0.06</t>
+        </is>
+      </c>
+      <c r="E113" t="inlineStr">
+        <is>
+          <t>92.96</t>
+        </is>
+      </c>
+      <c r="F113" t="inlineStr">
+        <is>
+          <t>2.70</t>
+        </is>
+      </c>
+      <c r="G113" t="inlineStr">
+        <is>
+          <t>0.0016</t>
+        </is>
+      </c>
+      <c r="H113" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="114">
+      <c r="A114" s="2" t="n">
+        <v>112</v>
+      </c>
+      <c r="B114" t="inlineStr">
+        <is>
+          <t>001708</t>
+        </is>
+      </c>
+      <c r="C114" t="inlineStr">
+        <is>
+          <t>东兴改革精选灵活配置混合</t>
+        </is>
+      </c>
+      <c r="D114" t="inlineStr">
+        <is>
+          <t>0.03</t>
+        </is>
+      </c>
+      <c r="E114" t="inlineStr">
+        <is>
+          <t>89.54</t>
+        </is>
+      </c>
+      <c r="F114" t="inlineStr">
+        <is>
+          <t>3.06</t>
+        </is>
+      </c>
+      <c r="G114" t="inlineStr">
+        <is>
+          <t>0.0009</t>
+        </is>
+      </c>
+      <c r="H114" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="115">
+      <c r="A115" s="2" t="n">
+        <v>113</v>
+      </c>
+      <c r="B115" t="inlineStr">
+        <is>
+          <t>011454</t>
+        </is>
+      </c>
+      <c r="C115" t="inlineStr">
+        <is>
+          <t>华泰柏瑞景气优选混合C</t>
+        </is>
+      </c>
+      <c r="D115" t="inlineStr">
+        <is>
+          <t>0.02</t>
+        </is>
+      </c>
+      <c r="E115" t="inlineStr">
+        <is>
+          <t>91.93</t>
+        </is>
+      </c>
+      <c r="F115" t="inlineStr">
+        <is>
+          <t>2.33</t>
+        </is>
+      </c>
+      <c r="G115" t="inlineStr">
+        <is>
+          <t>0.0005</t>
+        </is>
+      </c>
+      <c r="H115" t="n">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="2" t="n">
+        <v>114</v>
+      </c>
+      <c r="B116" t="inlineStr">
+        <is>
+          <t>015065</t>
+        </is>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>华夏乐享健康灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>0.01</t>
+        </is>
+      </c>
+      <c r="E116" t="inlineStr">
+        <is>
+          <t>85.23</t>
+        </is>
+      </c>
+      <c r="F116" t="inlineStr">
+        <is>
+          <t>3.60</t>
+        </is>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>0.0004</t>
+        </is>
+      </c>
+      <c r="H116" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="2" t="n">
+        <v>115</v>
+      </c>
+      <c r="B117" t="inlineStr">
+        <is>
+          <t>016780</t>
+        </is>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>国投瑞银锐意改革灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E117" t="inlineStr">
+        <is>
+          <t>85.61</t>
+        </is>
+      </c>
+      <c r="F117" t="inlineStr">
+        <is>
+          <t>4.69</t>
+        </is>
+      </c>
+      <c r="G117" t="n">
+        <v>0</v>
+      </c>
+      <c r="H117" t="n">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="2" t="n">
+        <v>116</v>
+      </c>
+      <c r="B118" t="inlineStr">
+        <is>
+          <t>015356</t>
+        </is>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>西部利得新润灵活配置混合C</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E118" t="inlineStr">
+        <is>
+          <t>80.39</t>
+        </is>
+      </c>
+      <c r="F118" t="inlineStr">
+        <is>
+          <t>3.00</t>
+        </is>
+      </c>
+      <c r="G118" t="n">
+        <v>0</v>
+      </c>
+      <c r="H118" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="2" t="n">
+        <v>117</v>
+      </c>
+      <c r="B119" t="inlineStr">
+        <is>
+          <t>015619</t>
+        </is>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>泰达宏利红利先锋混合C</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E119" t="inlineStr">
+        <is>
+          <t>93.38</t>
+        </is>
+      </c>
+      <c r="F119" t="inlineStr">
+        <is>
+          <t>4.00</t>
+        </is>
+      </c>
+      <c r="G119" t="n">
+        <v>0</v>
+      </c>
+      <c r="H119" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="2" t="n">
+        <v>118</v>
+      </c>
+      <c r="B120" t="inlineStr">
+        <is>
+          <t>960015</t>
+        </is>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>汇添富医药保健混合O</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>0.00</t>
+        </is>
+      </c>
+      <c r="E120" t="inlineStr">
+        <is>
+          <t>90.54</t>
+        </is>
+      </c>
+      <c r="F120" t="inlineStr">
+        <is>
+          <t>8.57</t>
+        </is>
+      </c>
+      <c r="G120" t="n">
+        <v>0</v>
+      </c>
+      <c r="H120" t="n">
+        <v>2</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -5526,7 +10321,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -9032,7 +13827,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -11290,7 +16085,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -13320,7 +18115,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14478,7 +19273,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -14914,7 +19709,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <sheetPr>
     <outlinePr summaryBelow="1" summaryRight="1"/>
@@ -15044,212 +19839,4 @@
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
-</file>
-
-<file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
-  <sheetPr>
-    <outlinePr summaryBelow="1" summaryRight="1"/>
-    <pageSetUpPr/>
-  </sheetPr>
-  <dimension ref="A1:H5"/>
-  <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A1" sqref="A1"/>
-    </sheetView>
-  </sheetViews>
-  <sheetFormatPr baseColWidth="8" defaultRowHeight="15"/>
-  <sheetData>
-    <row r="1">
-      <c r="B1" s="1" t="inlineStr">
-        <is>
-          <t>基金代码</t>
-        </is>
-      </c>
-      <c r="C1" s="1" t="inlineStr">
-        <is>
-          <t>基金名称</t>
-        </is>
-      </c>
-      <c r="D1" s="1" t="inlineStr">
-        <is>
-          <t>基金金额</t>
-        </is>
-      </c>
-      <c r="E1" s="1" t="inlineStr">
-        <is>
-          <t>股票总仓位</t>
-        </is>
-      </c>
-      <c r="F1" s="1" t="inlineStr">
-        <is>
-          <t>仓位占比</t>
-        </is>
-      </c>
-      <c r="G1" s="1" t="inlineStr">
-        <is>
-          <t>持有市值(亿元)</t>
-        </is>
-      </c>
-      <c r="H1" s="1" t="inlineStr">
-        <is>
-          <t>仓位排名</t>
-        </is>
-      </c>
-    </row>
-    <row r="2">
-      <c r="A2" s="1" t="n">
-        <v>0</v>
-      </c>
-      <c r="B2" t="inlineStr">
-        <is>
-          <t>001276</t>
-        </is>
-      </c>
-      <c r="C2" t="inlineStr">
-        <is>
-          <t>建信新经济灵活配置混合</t>
-        </is>
-      </c>
-      <c r="D2" t="inlineStr">
-        <is>
-          <t>2.26</t>
-        </is>
-      </c>
-      <c r="E2" t="inlineStr">
-        <is>
-          <t>88.47</t>
-        </is>
-      </c>
-      <c r="F2" t="inlineStr">
-        <is>
-          <t>4.93</t>
-        </is>
-      </c>
-      <c r="G2" t="inlineStr">
-        <is>
-          <t>0.1114</t>
-        </is>
-      </c>
-      <c r="H2" t="n">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="3">
-      <c r="A3" s="1" t="n">
-        <v>1</v>
-      </c>
-      <c r="B3" t="inlineStr">
-        <is>
-          <t>001825</t>
-        </is>
-      </c>
-      <c r="C3" t="inlineStr">
-        <is>
-          <t>建信中国制造2025股票</t>
-        </is>
-      </c>
-      <c r="D3" t="inlineStr">
-        <is>
-          <t>1.04</t>
-        </is>
-      </c>
-      <c r="E3" t="inlineStr">
-        <is>
-          <t>90.75</t>
-        </is>
-      </c>
-      <c r="F3" t="inlineStr">
-        <is>
-          <t>4.76</t>
-        </is>
-      </c>
-      <c r="G3" t="inlineStr">
-        <is>
-          <t>0.0495</t>
-        </is>
-      </c>
-      <c r="H3" t="n">
-        <v>8</v>
-      </c>
-    </row>
-    <row r="4">
-      <c r="A4" s="1" t="n">
-        <v>2</v>
-      </c>
-      <c r="B4" t="inlineStr">
-        <is>
-          <t>310318</t>
-        </is>
-      </c>
-      <c r="C4" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300指数增强A</t>
-        </is>
-      </c>
-      <c r="D4" t="inlineStr">
-        <is>
-          <t>9.03</t>
-        </is>
-      </c>
-      <c r="E4" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F4" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="G4" t="inlineStr">
-        <is>
-          <t>0.0036</t>
-        </is>
-      </c>
-      <c r="H4" t="n">
-        <v>10</v>
-      </c>
-    </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>007804</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
-        <is>
-          <t>申万菱信沪深300指数增强C</t>
-        </is>
-      </c>
-      <c r="D5" t="inlineStr">
-        <is>
-          <t>1.91</t>
-        </is>
-      </c>
-      <c r="E5" t="inlineStr">
-        <is>
-          <t>91.23</t>
-        </is>
-      </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>0.04</t>
-        </is>
-      </c>
-      <c r="G5" t="inlineStr">
-        <is>
-          <t>0.0008</t>
-        </is>
-      </c>
-      <c r="H5" t="n">
-        <v>10</v>
-      </c>
-    </row>
-  </sheetData>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
 </file>